--- a/Data/EC/NIT-9014964128.xlsx
+++ b/Data/EC/NIT-9014964128.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B10D02C-DC7F-4265-963D-083D197CE933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46D26C6-9749-4C97-8A2D-D0E2BF1897B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{907868C1-C6DE-4C96-9707-9FBEC4917FCB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34CEBCD0-EB42-4FDC-B6D0-0E0561DC8129}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,43 +74,61 @@
     <t>2405</t>
   </si>
   <si>
+    <t>73593957</t>
+  </si>
+  <si>
+    <t>SAUL ALBERTO IRIARTE BERRIO</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
     <t>1049829913</t>
   </si>
   <si>
     <t>JESUS MANUEL MORALES MORALES</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
   </si>
   <si>
     <t>2408</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
+    <t>1047480870</t>
+  </si>
+  <si>
+    <t>JEHISON SARZA IRIARTE</t>
+  </si>
+  <si>
+    <t>1002243338</t>
+  </si>
+  <si>
+    <t>CATTY PAOLA TORRES HERRERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -524,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891DB464-07F4-B2AB-AE5D-CC0F23F6A535}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994E4B56-2674-1092-21D7-A039ADFE3126}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +893,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C1F9C0-B877-4BE5-B3D4-DB042FF89265}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FAD1C7-4C80-4657-8CDE-25F3D69B2531}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -900,7 +918,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -945,7 +963,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -977,12 +995,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>663866</v>
+        <v>2043598</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,14 +1011,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F13" s="5">
         <v>12</v>
@@ -1030,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1056,7 +1074,7 @@
         <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,13 +1091,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,13 +1114,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1119,13 +1137,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1136,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>39866</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1159,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1182,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1205,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1228,19 +1246,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1251,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1274,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1297,75 +1315,696 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="18">
+        <v>39866</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F38" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="18">
         <v>39866</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G44" s="18">
         <v>1300000</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9014964128.xlsx
+++ b/Data/EC/NIT-9014964128.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46D26C6-9749-4C97-8A2D-D0E2BF1897B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB3B690-4E0D-47EB-AA11-A836FF657A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34CEBCD0-EB42-4FDC-B6D0-0E0561DC8129}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A0C03C1-65E0-4A60-A609-0EE02A724D82}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -74,61 +74,43 @@
     <t>2405</t>
   </si>
   <si>
-    <t>73593957</t>
-  </si>
-  <si>
-    <t>SAUL ALBERTO IRIARTE BERRIO</t>
+    <t>1049829913</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL MORALES MORALES</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>2407</t>
   </si>
   <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1049829913</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL MORALES MORALES</t>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
   </si>
   <si>
     <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1047480870</t>
-  </si>
-  <si>
-    <t>JEHISON SARZA IRIARTE</t>
-  </si>
-  <si>
-    <t>1002243338</t>
-  </si>
-  <si>
-    <t>CATTY PAOLA TORRES HERRERA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -227,7 +209,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +224,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +424,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +468,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994E4B56-2674-1092-21D7-A039ADFE3126}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B068880-0305-93A3-E63F-185D36FF9E24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FAD1C7-4C80-4657-8CDE-25F3D69B2531}">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24760AB-D184-4672-9527-511659B560CD}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -918,7 +900,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +945,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2043598</v>
+        <v>663866</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,14 +993,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
         <v>12</v>
@@ -1048,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,7 +1056,7 @@
         <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,13 +1073,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,13 +1096,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,13 +1119,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1154,19 +1136,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1177,19 +1159,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1200,19 +1182,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1223,19 +1205,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1246,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1269,19 +1251,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1292,19 +1274,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1315,696 +1297,75 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="18">
+      <c r="C28" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="24">
         <v>39866</v>
       </c>
-      <c r="G32" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G28" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="B33" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="18">
-        <v>39866</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="B34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
